--- a/SeparablePanel/output/responsePercentiles.xlsx
+++ b/SeparablePanel/output/responsePercentiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="656" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="820" uniqueCount="82">
   <si>
     <t>Time</t>
   </si>
@@ -315,7 +315,7 @@
     <col min="3" max="3" width="16.5703125" customWidth="true"/>
     <col min="4" max="4" width="16.5703125" customWidth="true"/>
     <col min="5" max="5" width="16" customWidth="true"/>
-    <col min="6" max="6" width="16" customWidth="true"/>
+    <col min="6" max="6" width="16.42578125" customWidth="true"/>
     <col min="7" max="7" width="16" customWidth="true"/>
     <col min="8" max="8" width="16" customWidth="true"/>
     <col min="9" max="9" width="16" customWidth="true"/>
@@ -342,7 +342,7 @@
     <col min="30" max="30" width="16.5703125" customWidth="true"/>
     <col min="31" max="31" width="16.5703125" customWidth="true"/>
     <col min="32" max="32" width="16" customWidth="true"/>
-    <col min="33" max="33" width="16" customWidth="true"/>
+    <col min="33" max="33" width="16.42578125" customWidth="true"/>
     <col min="34" max="34" width="16" customWidth="true"/>
     <col min="35" max="35" width="16" customWidth="true"/>
     <col min="36" max="36" width="16" customWidth="true"/>
@@ -369,7 +369,7 @@
     <col min="57" max="57" width="16.7109375" customWidth="true"/>
     <col min="58" max="58" width="16.7109375" customWidth="true"/>
     <col min="59" max="59" width="16.140625" customWidth="true"/>
-    <col min="60" max="60" width="16.140625" customWidth="true"/>
+    <col min="60" max="60" width="16.42578125" customWidth="true"/>
     <col min="61" max="61" width="16.140625" customWidth="true"/>
     <col min="62" max="62" width="16.140625" customWidth="true"/>
     <col min="63" max="63" width="16.140625" customWidth="true"/>
@@ -1400,22 +1400,22 @@
         <v>0</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.81715311748099684</v>
+        <v>-0.82684202706215526</v>
       </c>
       <c r="F5" s="0">
-        <v>0.02095248629183346</v>
+        <v>-0.0046674327435903039</v>
       </c>
       <c r="G5" s="0">
-        <v>0.81664243089400468</v>
+        <v>0.82505482067983982</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.83191576102668252</v>
+        <v>-0.83703327719317033</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.049540543096606916</v>
+        <v>-0.090787324803322147</v>
       </c>
       <c r="J5" s="0">
-        <v>0.8138389058116795</v>
+        <v>0.80712202638972164</v>
       </c>
       <c r="K5" s="0">
         <v>0</v>
@@ -1427,22 +1427,22 @@
         <v>0</v>
       </c>
       <c r="N5" s="0">
-        <v>-0.66457186939673241</v>
+        <v>-0.66152187628459147</v>
       </c>
       <c r="O5" s="0">
-        <v>-0.077897123972856391</v>
+        <v>-0.044088269362720256</v>
       </c>
       <c r="P5" s="0">
-        <v>0.66058399180294636</v>
+        <v>0.66653149015925517</v>
       </c>
       <c r="Q5" s="0">
-        <v>-0.66834227953362579</v>
+        <v>-0.66632941846164606</v>
       </c>
       <c r="R5" s="0">
-        <v>-0.018269578456909293</v>
+        <v>0.022107538288649715</v>
       </c>
       <c r="S5" s="0">
-        <v>0.65101245974370636</v>
+        <v>0.66535696860026539</v>
       </c>
       <c r="T5" s="0">
         <v>-0.7765001909606426</v>
@@ -1454,22 +1454,22 @@
         <v>0.7765001909606426</v>
       </c>
       <c r="W5" s="0">
-        <v>-0.18175671279394373</v>
+        <v>-0.17996471930895708</v>
       </c>
       <c r="X5" s="0">
-        <v>-0.0049534933696216976</v>
+        <v>0.0027450454934001695</v>
       </c>
       <c r="Y5" s="0">
-        <v>0.17877472375011227</v>
+        <v>0.17587711434656553</v>
       </c>
       <c r="Z5" s="0">
-        <v>-0.1824911704341326</v>
+        <v>-0.17864797083916506</v>
       </c>
       <c r="AA5" s="0">
-        <v>-0.019037806388683291</v>
+        <v>-0.011045146642375922</v>
       </c>
       <c r="AB5" s="0">
-        <v>0.18033276797516551</v>
+        <v>0.18071236676454489</v>
       </c>
       <c r="AC5" s="0">
         <v>0</v>
@@ -1481,22 +1481,22 @@
         <v>0</v>
       </c>
       <c r="AF5" s="0">
-        <v>-0.81715311748099684</v>
+        <v>-0.82684202706215526</v>
       </c>
       <c r="AG5" s="0">
-        <v>0.02095248629183346</v>
+        <v>-0.0046674327435903039</v>
       </c>
       <c r="AH5" s="0">
-        <v>0.81664243089400468</v>
+        <v>0.82505482067983982</v>
       </c>
       <c r="AI5" s="0">
-        <v>-0.83191576102668252</v>
+        <v>-0.83703327719317033</v>
       </c>
       <c r="AJ5" s="0">
-        <v>-0.049540543096606916</v>
+        <v>-0.090787324803322147</v>
       </c>
       <c r="AK5" s="0">
-        <v>0.8138389058116795</v>
+        <v>0.80712202638972164</v>
       </c>
       <c r="AL5" s="0">
         <v>0</v>
@@ -1508,22 +1508,22 @@
         <v>0</v>
       </c>
       <c r="AO5" s="0">
-        <v>-0.66457186939673241</v>
+        <v>-0.66152187628459147</v>
       </c>
       <c r="AP5" s="0">
-        <v>-0.077897123972856391</v>
+        <v>-0.044088269362720256</v>
       </c>
       <c r="AQ5" s="0">
-        <v>0.66058399180294636</v>
+        <v>0.66653149015925517</v>
       </c>
       <c r="AR5" s="0">
-        <v>-0.66834227953362579</v>
+        <v>-0.66632941846164606</v>
       </c>
       <c r="AS5" s="0">
-        <v>-0.018269578456909293</v>
+        <v>0.022107538288649715</v>
       </c>
       <c r="AT5" s="0">
-        <v>0.65101245974370636</v>
+        <v>0.66535696860026539</v>
       </c>
       <c r="AU5" s="0">
         <v>-0.7765001909606426</v>
@@ -1535,22 +1535,22 @@
         <v>0.7765001909606426</v>
       </c>
       <c r="AX5" s="0">
-        <v>-0.18175671279394373</v>
+        <v>-0.17996471930895708</v>
       </c>
       <c r="AY5" s="0">
-        <v>-0.0049534933696216976</v>
+        <v>0.0027450454934001695</v>
       </c>
       <c r="AZ5" s="0">
-        <v>0.17877472375011227</v>
+        <v>0.17587711434656553</v>
       </c>
       <c r="BA5" s="0">
-        <v>-0.1824911704341326</v>
+        <v>-0.17864797083916506</v>
       </c>
       <c r="BB5" s="0">
-        <v>-0.019037806388683291</v>
+        <v>-0.011045146642375922</v>
       </c>
       <c r="BC5" s="0">
-        <v>0.18033276797516551</v>
+        <v>0.18071236676454489</v>
       </c>
       <c r="BD5" s="0">
         <v>0</v>
@@ -1562,22 +1562,22 @@
         <v>0</v>
       </c>
       <c r="BG5" s="0">
-        <v>-0.81715311748099684</v>
+        <v>-0.82684202706215526</v>
       </c>
       <c r="BH5" s="0">
-        <v>0.02095248629183346</v>
+        <v>-0.0046674327435903039</v>
       </c>
       <c r="BI5" s="0">
-        <v>0.81664243089400468</v>
+        <v>0.82505482067983982</v>
       </c>
       <c r="BJ5" s="0">
-        <v>-0.83191576102668252</v>
+        <v>-0.83703327719317033</v>
       </c>
       <c r="BK5" s="0">
-        <v>-0.049540543096606916</v>
+        <v>-0.090787324803322147</v>
       </c>
       <c r="BL5" s="0">
-        <v>0.8138389058116795</v>
+        <v>0.80712202638972164</v>
       </c>
       <c r="BM5" s="0">
         <v>0</v>
@@ -1589,22 +1589,22 @@
         <v>0</v>
       </c>
       <c r="BP5" s="0">
-        <v>-0.66457186939673241</v>
+        <v>-0.66152187628459147</v>
       </c>
       <c r="BQ5" s="0">
-        <v>-0.077897123972856391</v>
+        <v>-0.044088269362720256</v>
       </c>
       <c r="BR5" s="0">
-        <v>0.66058399180294636</v>
+        <v>0.66653149015925517</v>
       </c>
       <c r="BS5" s="0">
-        <v>-0.66834227953362579</v>
+        <v>-0.66632941846164606</v>
       </c>
       <c r="BT5" s="0">
-        <v>-0.018269578456909293</v>
+        <v>0.022107538288649715</v>
       </c>
       <c r="BU5" s="0">
-        <v>0.65101245974370636</v>
+        <v>0.66535696860026539</v>
       </c>
       <c r="BV5" s="0">
         <v>-0.7765001909606426</v>
@@ -1616,22 +1616,22 @@
         <v>0.7765001909606426</v>
       </c>
       <c r="BY5" s="0">
-        <v>-0.18175671279394373</v>
+        <v>-0.17996471930895708</v>
       </c>
       <c r="BZ5" s="0">
-        <v>-0.0049534933696216976</v>
+        <v>0.0027450454934001695</v>
       </c>
       <c r="CA5" s="0">
-        <v>0.17877472375011227</v>
+        <v>0.17587711434656553</v>
       </c>
       <c r="CB5" s="0">
-        <v>-0.1824911704341326</v>
+        <v>-0.17864797083916506</v>
       </c>
       <c r="CC5" s="0">
-        <v>-0.019037806388683291</v>
+        <v>-0.011045146642375922</v>
       </c>
       <c r="CD5" s="0">
-        <v>0.18033276797516551</v>
+        <v>0.18071236676454489</v>
       </c>
     </row>
     <row r="6">
@@ -1639,247 +1639,247 @@
         <v>42095</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.12946344687126904</v>
+        <v>-0.12949286417677769</v>
       </c>
       <c r="C6" s="0">
-        <v>0.12077826652187404</v>
+        <v>0.11721943924932429</v>
       </c>
       <c r="D6" s="0">
-        <v>0.12983132673896586</v>
+        <v>0.1295289110390781</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.79971402096494992</v>
+        <v>-0.81788392284777389</v>
       </c>
       <c r="F6" s="0">
-        <v>0.018703228098707891</v>
+        <v>-0.0138279256291436</v>
       </c>
       <c r="G6" s="0">
-        <v>0.80072204374533018</v>
+        <v>0.81317104431853782</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.81246171643680132</v>
+        <v>-0.81512389309538236</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.046646731028902863</v>
+        <v>-0.10458437557076253</v>
       </c>
       <c r="J6" s="0">
-        <v>0.78029126553497119</v>
+        <v>0.78703640935945995</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.10711381326698165</v>
+        <v>-0.10586769986540419</v>
       </c>
       <c r="L6" s="0">
-        <v>0.074941564156548401</v>
+        <v>0.072921818865205407</v>
       </c>
       <c r="M6" s="0">
-        <v>0.1075243466493465</v>
+        <v>0.10676919360461326</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.84834466325156943</v>
+        <v>-0.83373273236022705</v>
       </c>
       <c r="O6" s="0">
-        <v>-0.090628528752964232</v>
+        <v>-0.023285091218241637</v>
       </c>
       <c r="P6" s="0">
-        <v>0.84206156310959068</v>
+        <v>0.8459981924419121</v>
       </c>
       <c r="Q6" s="0">
-        <v>-0.85850026293999937</v>
+        <v>-0.83745079233702391</v>
       </c>
       <c r="R6" s="0">
-        <v>-0.029418890723356819</v>
+        <v>0.020086294687564597</v>
       </c>
       <c r="S6" s="0">
-        <v>0.83531387992524919</v>
+        <v>0.86168773523543563</v>
       </c>
       <c r="T6" s="0">
-        <v>-0.93324716274074282</v>
+        <v>-0.93568703664016217</v>
       </c>
       <c r="U6" s="0">
-        <v>0.80309485570980343</v>
+        <v>0.78651387717711652</v>
       </c>
       <c r="V6" s="0">
-        <v>0.92842240813146815</v>
+        <v>0.93458933741056627</v>
       </c>
       <c r="W6" s="0">
-        <v>-0.34299041119481027</v>
+        <v>-0.33997153043563078</v>
       </c>
       <c r="X6" s="0">
-        <v>-0.0096199004194325952</v>
+        <v>0.0032591087796196919</v>
       </c>
       <c r="Y6" s="0">
-        <v>0.34379121256913869</v>
+        <v>0.33557613306723216</v>
       </c>
       <c r="Z6" s="0">
-        <v>-0.34468252809372701</v>
+        <v>-0.34477030542325238</v>
       </c>
       <c r="AA6" s="0">
-        <v>-0.033131711394548805</v>
+        <v>-0.024053330940650972</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.33301069593652827</v>
+        <v>0.32839406093872142</v>
       </c>
       <c r="AC6" s="0">
-        <v>-0.12946344687126904</v>
+        <v>-0.12949286417677769</v>
       </c>
       <c r="AD6" s="0">
-        <v>0.12077826652187404</v>
+        <v>0.11721943924932429</v>
       </c>
       <c r="AE6" s="0">
-        <v>0.12983132673896586</v>
+        <v>0.1295289110390781</v>
       </c>
       <c r="AF6" s="0">
-        <v>-0.79971402096494992</v>
+        <v>-0.81788392284777389</v>
       </c>
       <c r="AG6" s="0">
-        <v>0.018703228098707891</v>
+        <v>-0.0138279256291436</v>
       </c>
       <c r="AH6" s="0">
-        <v>0.80072204374533018</v>
+        <v>0.81317104431853782</v>
       </c>
       <c r="AI6" s="0">
-        <v>-0.81246171643680132</v>
+        <v>-0.81512389309538236</v>
       </c>
       <c r="AJ6" s="0">
-        <v>-0.046646731028902863</v>
+        <v>-0.10458437557076253</v>
       </c>
       <c r="AK6" s="0">
-        <v>0.78029126553497119</v>
+        <v>0.78703640935945995</v>
       </c>
       <c r="AL6" s="0">
-        <v>-0.10711381326698165</v>
+        <v>-0.10586769986540419</v>
       </c>
       <c r="AM6" s="0">
-        <v>0.074941564156548401</v>
+        <v>0.072921818865205407</v>
       </c>
       <c r="AN6" s="0">
-        <v>0.1075243466493465</v>
+        <v>0.10676919360461326</v>
       </c>
       <c r="AO6" s="0">
-        <v>-0.84834466325156943</v>
+        <v>-0.83373273236022705</v>
       </c>
       <c r="AP6" s="0">
-        <v>-0.090628528752964232</v>
+        <v>-0.023285091218241637</v>
       </c>
       <c r="AQ6" s="0">
-        <v>0.84206156310959068</v>
+        <v>0.8459981924419121</v>
       </c>
       <c r="AR6" s="0">
-        <v>-0.85850026293999937</v>
+        <v>-0.83745079233702391</v>
       </c>
       <c r="AS6" s="0">
-        <v>-0.029418890723356819</v>
+        <v>0.020086294687564597</v>
       </c>
       <c r="AT6" s="0">
-        <v>0.83531387992524919</v>
+        <v>0.86168773523543563</v>
       </c>
       <c r="AU6" s="0">
-        <v>-0.93324716274074282</v>
+        <v>-0.93568703664016217</v>
       </c>
       <c r="AV6" s="0">
-        <v>0.80309485570980343</v>
+        <v>0.78651387717711652</v>
       </c>
       <c r="AW6" s="0">
-        <v>0.92842240813146815</v>
+        <v>0.93458933741056627</v>
       </c>
       <c r="AX6" s="0">
-        <v>-0.34299041119481027</v>
+        <v>-0.33997153043563078</v>
       </c>
       <c r="AY6" s="0">
-        <v>-0.0096199004194325952</v>
+        <v>0.0032591087796196919</v>
       </c>
       <c r="AZ6" s="0">
-        <v>0.34379121256913869</v>
+        <v>0.33557613306723216</v>
       </c>
       <c r="BA6" s="0">
-        <v>-0.34468252809372701</v>
+        <v>-0.34477030542325238</v>
       </c>
       <c r="BB6" s="0">
-        <v>-0.033131711394548805</v>
+        <v>-0.024053330940650972</v>
       </c>
       <c r="BC6" s="0">
-        <v>0.33301069593652827</v>
+        <v>0.32839406093872142</v>
       </c>
       <c r="BD6" s="0">
-        <v>-0.12946344687126904</v>
+        <v>-0.12949286417677769</v>
       </c>
       <c r="BE6" s="0">
-        <v>0.12077826652187404</v>
+        <v>0.11721943924932429</v>
       </c>
       <c r="BF6" s="0">
-        <v>0.12983132673896586</v>
+        <v>0.1295289110390781</v>
       </c>
       <c r="BG6" s="0">
-        <v>-0.79971402096494992</v>
+        <v>-0.81788392284777389</v>
       </c>
       <c r="BH6" s="0">
-        <v>0.018703228098707891</v>
+        <v>-0.0138279256291436</v>
       </c>
       <c r="BI6" s="0">
-        <v>0.80072204374533018</v>
+        <v>0.81317104431853782</v>
       </c>
       <c r="BJ6" s="0">
-        <v>-0.81246171643680132</v>
+        <v>-0.81512389309538236</v>
       </c>
       <c r="BK6" s="0">
-        <v>-0.046646731028902863</v>
+        <v>-0.10458437557076253</v>
       </c>
       <c r="BL6" s="0">
-        <v>0.78029126553497119</v>
+        <v>0.78703640935945995</v>
       </c>
       <c r="BM6" s="0">
-        <v>-0.10711381326698165</v>
+        <v>-0.10586769986540419</v>
       </c>
       <c r="BN6" s="0">
-        <v>0.074941564156548401</v>
+        <v>0.072921818865205407</v>
       </c>
       <c r="BO6" s="0">
-        <v>0.1075243466493465</v>
+        <v>0.10676919360461326</v>
       </c>
       <c r="BP6" s="0">
-        <v>-0.84834466325156943</v>
+        <v>-0.83373273236022705</v>
       </c>
       <c r="BQ6" s="0">
-        <v>-0.090628528752964232</v>
+        <v>-0.023285091218241637</v>
       </c>
       <c r="BR6" s="0">
-        <v>0.84206156310959068</v>
+        <v>0.8459981924419121</v>
       </c>
       <c r="BS6" s="0">
-        <v>-0.85850026293999937</v>
+        <v>-0.83745079233702391</v>
       </c>
       <c r="BT6" s="0">
-        <v>-0.029418890723356819</v>
+        <v>0.020086294687564597</v>
       </c>
       <c r="BU6" s="0">
-        <v>0.83531387992524919</v>
+        <v>0.86168773523543563</v>
       </c>
       <c r="BV6" s="0">
-        <v>-0.93324716274074282</v>
+        <v>-0.93568703664016217</v>
       </c>
       <c r="BW6" s="0">
-        <v>0.80309485570980343</v>
+        <v>0.78651387717711652</v>
       </c>
       <c r="BX6" s="0">
-        <v>0.92842240813146815</v>
+        <v>0.93458933741056627</v>
       </c>
       <c r="BY6" s="0">
-        <v>-0.34299041119481027</v>
+        <v>-0.33997153043563078</v>
       </c>
       <c r="BZ6" s="0">
-        <v>-0.0096199004194325952</v>
+        <v>0.0032591087796196919</v>
       </c>
       <c r="CA6" s="0">
-        <v>0.34379121256913869</v>
+        <v>0.33557613306723216</v>
       </c>
       <c r="CB6" s="0">
-        <v>-0.34468252809372701</v>
+        <v>-0.34477030542325238</v>
       </c>
       <c r="CC6" s="0">
-        <v>-0.033131711394548805</v>
+        <v>-0.024053330940650972</v>
       </c>
       <c r="CD6" s="0">
-        <v>0.33301069593652827</v>
+        <v>0.32839406093872142</v>
       </c>
     </row>
     <row r="7">
@@ -1887,247 +1887,247 @@
         <v>42186</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.053149761878401078</v>
+        <v>-0.051213518831531003</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.0010266220901807362</v>
+        <v>-0.001079075370970765</v>
       </c>
       <c r="D7" s="0">
-        <v>0.053715792939844464</v>
+        <v>0.051853294573216344</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.74314349812292391</v>
+        <v>-0.76123289100841762</v>
       </c>
       <c r="F7" s="0">
-        <v>0.012964958718221661</v>
+        <v>-0.00080685986586160588</v>
       </c>
       <c r="G7" s="0">
-        <v>0.75018916243878975</v>
+        <v>0.76053552580454309</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.76195091770024881</v>
+        <v>-0.76571243622614971</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.033308007055511082</v>
+        <v>-0.063086726002439864</v>
       </c>
       <c r="J7" s="0">
-        <v>0.73925963617297907</v>
+        <v>0.73840008121473688</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.26162028354890898</v>
+        <v>-0.24809222410744514</v>
       </c>
       <c r="L7" s="0">
-        <v>0.0091096161568971056</v>
+        <v>-0.0019463305934058726</v>
       </c>
       <c r="M7" s="0">
-        <v>0.26919987702715442</v>
+        <v>0.26067276853864479</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.81063561841949894</v>
+        <v>-0.79443366736295018</v>
       </c>
       <c r="O7" s="0">
-        <v>-0.090783600724857305</v>
+        <v>-0.029504707720313456</v>
       </c>
       <c r="P7" s="0">
-        <v>0.80599399256088622</v>
+        <v>0.79632459110384102</v>
       </c>
       <c r="Q7" s="0">
-        <v>-0.82536576785169113</v>
+        <v>-0.78585310400523811</v>
       </c>
       <c r="R7" s="0">
-        <v>-0.054115983524848948</v>
+        <v>0.011222470868746231</v>
       </c>
       <c r="S7" s="0">
-        <v>0.80225703821690231</v>
+        <v>0.83004150982524805</v>
       </c>
       <c r="T7" s="0">
-        <v>-0.88767225090764135</v>
+        <v>-0.88751243364408783</v>
       </c>
       <c r="U7" s="0">
-        <v>0.63009067275676078</v>
+        <v>0.60256939706080503</v>
       </c>
       <c r="V7" s="0">
-        <v>0.87493143088654457</v>
+        <v>0.88005866175909275</v>
       </c>
       <c r="W7" s="0">
-        <v>-0.4151327670713843</v>
+        <v>-0.41632964267729222</v>
       </c>
       <c r="X7" s="0">
-        <v>-0.018633151884685131</v>
+        <v>-0.0014031448611294601</v>
       </c>
       <c r="Y7" s="0">
-        <v>0.40506682783425552</v>
+        <v>0.40108078614564124</v>
       </c>
       <c r="Z7" s="0">
-        <v>-0.41787645179330418</v>
+        <v>-0.40696922650631662</v>
       </c>
       <c r="AA7" s="0">
-        <v>-0.044320167862507948</v>
+        <v>-0.029141007292285859</v>
       </c>
       <c r="AB7" s="0">
-        <v>0.39438822780803606</v>
+        <v>0.39123973721030825</v>
       </c>
       <c r="AC7" s="0">
-        <v>-0.053149761878401078</v>
+        <v>-0.051213518831531003</v>
       </c>
       <c r="AD7" s="0">
-        <v>-0.0010266220901807362</v>
+        <v>-0.001079075370970765</v>
       </c>
       <c r="AE7" s="0">
-        <v>0.053715792939844464</v>
+        <v>0.051853294573216344</v>
       </c>
       <c r="AF7" s="0">
-        <v>-0.74314349812292391</v>
+        <v>-0.76123289100841762</v>
       </c>
       <c r="AG7" s="0">
-        <v>0.012964958718221661</v>
+        <v>-0.00080685986586160588</v>
       </c>
       <c r="AH7" s="0">
-        <v>0.75018916243878975</v>
+        <v>0.76053552580454309</v>
       </c>
       <c r="AI7" s="0">
-        <v>-0.76195091770024881</v>
+        <v>-0.76571243622614971</v>
       </c>
       <c r="AJ7" s="0">
-        <v>-0.033308007055511082</v>
+        <v>-0.063086726002439864</v>
       </c>
       <c r="AK7" s="0">
-        <v>0.73925963617297907</v>
+        <v>0.73840008121473688</v>
       </c>
       <c r="AL7" s="0">
-        <v>-0.26162028354890898</v>
+        <v>-0.24809222410744514</v>
       </c>
       <c r="AM7" s="0">
-        <v>0.0091096161568971056</v>
+        <v>-0.0019463305934058726</v>
       </c>
       <c r="AN7" s="0">
-        <v>0.26919987702715442</v>
+        <v>0.26067276853864479</v>
       </c>
       <c r="AO7" s="0">
-        <v>-0.81063561841949894</v>
+        <v>-0.79443366736295018</v>
       </c>
       <c r="AP7" s="0">
-        <v>-0.090783600724857305</v>
+        <v>-0.029504707720313456</v>
       </c>
       <c r="AQ7" s="0">
-        <v>0.80599399256088622</v>
+        <v>0.79632459110384102</v>
       </c>
       <c r="AR7" s="0">
-        <v>-0.82536576785169113</v>
+        <v>-0.78585310400523811</v>
       </c>
       <c r="AS7" s="0">
-        <v>-0.054115983524848948</v>
+        <v>0.011222470868746231</v>
       </c>
       <c r="AT7" s="0">
-        <v>0.80225703821690231</v>
+        <v>0.83004150982524805</v>
       </c>
       <c r="AU7" s="0">
-        <v>-0.88767225090764135</v>
+        <v>-0.88751243364408783</v>
       </c>
       <c r="AV7" s="0">
-        <v>0.63009067275676078</v>
+        <v>0.60256939706080503</v>
       </c>
       <c r="AW7" s="0">
-        <v>0.87493143088654457</v>
+        <v>0.88005866175909275</v>
       </c>
       <c r="AX7" s="0">
-        <v>-0.4151327670713843</v>
+        <v>-0.41632964267729222</v>
       </c>
       <c r="AY7" s="0">
-        <v>-0.018633151884685131</v>
+        <v>-0.0014031448611294601</v>
       </c>
       <c r="AZ7" s="0">
-        <v>0.40506682783425552</v>
+        <v>0.40108078614564124</v>
       </c>
       <c r="BA7" s="0">
-        <v>-0.41787645179330418</v>
+        <v>-0.40696922650631662</v>
       </c>
       <c r="BB7" s="0">
-        <v>-0.044320167862507948</v>
+        <v>-0.029141007292285859</v>
       </c>
       <c r="BC7" s="0">
-        <v>0.39438822780803606</v>
+        <v>0.39123973721030825</v>
       </c>
       <c r="BD7" s="0">
-        <v>-0.053149761878401078</v>
+        <v>-0.051213518831531003</v>
       </c>
       <c r="BE7" s="0">
-        <v>-0.0010266220901807362</v>
+        <v>-0.001079075370970765</v>
       </c>
       <c r="BF7" s="0">
-        <v>0.053715792939844464</v>
+        <v>0.051853294573216344</v>
       </c>
       <c r="BG7" s="0">
-        <v>-0.74314349812292391</v>
+        <v>-0.76123289100841762</v>
       </c>
       <c r="BH7" s="0">
-        <v>0.012964958718221661</v>
+        <v>-0.00080685986586160588</v>
       </c>
       <c r="BI7" s="0">
-        <v>0.75018916243878975</v>
+        <v>0.76053552580454309</v>
       </c>
       <c r="BJ7" s="0">
-        <v>-0.76195091770024881</v>
+        <v>-0.76571243622614971</v>
       </c>
       <c r="BK7" s="0">
-        <v>-0.033308007055511082</v>
+        <v>-0.063086726002439864</v>
       </c>
       <c r="BL7" s="0">
-        <v>0.73925963617297907</v>
+        <v>0.73840008121473688</v>
       </c>
       <c r="BM7" s="0">
-        <v>-0.26162028354890898</v>
+        <v>-0.24809222410744514</v>
       </c>
       <c r="BN7" s="0">
-        <v>0.0091096161568971056</v>
+        <v>-0.0019463305934058726</v>
       </c>
       <c r="BO7" s="0">
-        <v>0.26919987702715442</v>
+        <v>0.26067276853864479</v>
       </c>
       <c r="BP7" s="0">
-        <v>-0.81063561841949894</v>
+        <v>-0.79443366736295018</v>
       </c>
       <c r="BQ7" s="0">
-        <v>-0.090783600724857305</v>
+        <v>-0.029504707720313456</v>
       </c>
       <c r="BR7" s="0">
-        <v>0.80599399256088622</v>
+        <v>0.79632459110384102</v>
       </c>
       <c r="BS7" s="0">
-        <v>-0.82536576785169113</v>
+        <v>-0.78585310400523811</v>
       </c>
       <c r="BT7" s="0">
-        <v>-0.054115983524848948</v>
+        <v>0.011222470868746231</v>
       </c>
       <c r="BU7" s="0">
-        <v>0.80225703821690231</v>
+        <v>0.83004150982524805</v>
       </c>
       <c r="BV7" s="0">
-        <v>-0.88767225090764135</v>
+        <v>-0.88751243364408783</v>
       </c>
       <c r="BW7" s="0">
-        <v>0.63009067275676078</v>
+        <v>0.60256939706080503</v>
       </c>
       <c r="BX7" s="0">
-        <v>0.87493143088654457</v>
+        <v>0.88005866175909275</v>
       </c>
       <c r="BY7" s="0">
-        <v>-0.4151327670713843</v>
+        <v>-0.41632964267729222</v>
       </c>
       <c r="BZ7" s="0">
-        <v>-0.018633151884685131</v>
+        <v>-0.0014031448611294601</v>
       </c>
       <c r="CA7" s="0">
-        <v>0.40506682783425552</v>
+        <v>0.40108078614564124</v>
       </c>
       <c r="CB7" s="0">
-        <v>-0.41787645179330418</v>
+        <v>-0.40696922650631662</v>
       </c>
       <c r="CC7" s="0">
-        <v>-0.044320167862507948</v>
+        <v>-0.029141007292285859</v>
       </c>
       <c r="CD7" s="0">
-        <v>0.39438822780803606</v>
+        <v>0.39123973721030825</v>
       </c>
     </row>
     <row r="8">
@@ -2135,247 +2135,247 @@
         <v>42278</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.14191955005726195</v>
+        <v>-0.14155174722748454</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.039795370030794364</v>
+        <v>-0.020281242310574755</v>
       </c>
       <c r="D8" s="0">
-        <v>0.14057644028268396</v>
+        <v>0.141132711188481</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.48737821306112006</v>
+        <v>-0.48743566295900692</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00029656372604739073</v>
+        <v>0.003386692891526078</v>
       </c>
       <c r="G8" s="0">
-        <v>0.4798137049092881</v>
+        <v>0.48857139138852168</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.48587304794348124</v>
+        <v>-0.48293113803859367</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.021764615772980597</v>
+        <v>-0.045906767280822935</v>
       </c>
       <c r="J8" s="0">
-        <v>0.47413738763557989</v>
+        <v>0.47063540873236298</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.29212645906106693</v>
+        <v>-0.26587870028724048</v>
       </c>
       <c r="L8" s="0">
-        <v>0.007339391049942294</v>
+        <v>0.0053108454813491929</v>
       </c>
       <c r="M8" s="0">
-        <v>0.30387659635797182</v>
+        <v>0.29261305251409897</v>
       </c>
       <c r="N8" s="0">
-        <v>-0.71145630340786437</v>
+        <v>-0.69868701348723494</v>
       </c>
       <c r="O8" s="0">
-        <v>-0.063335841403588333</v>
+        <v>-0.023378108037563843</v>
       </c>
       <c r="P8" s="0">
-        <v>0.70626676386309817</v>
+        <v>0.70142364277857827</v>
       </c>
       <c r="Q8" s="0">
-        <v>-0.72407758513942588</v>
+        <v>-0.69567087126387761</v>
       </c>
       <c r="R8" s="0">
-        <v>-0.032261086606633807</v>
+        <v>0.0047812062844220437</v>
       </c>
       <c r="S8" s="0">
-        <v>0.70615956416352788</v>
+        <v>0.7408566551051452</v>
       </c>
       <c r="T8" s="0">
-        <v>-0.8235580212417426</v>
+        <v>-0.82244399439916771</v>
       </c>
       <c r="U8" s="0">
-        <v>0.48037715776627565</v>
+        <v>0.45721612714435589</v>
       </c>
       <c r="V8" s="0">
-        <v>0.81030710394696837</v>
+        <v>0.8187983289276225</v>
       </c>
       <c r="W8" s="0">
-        <v>-0.50456459399541398</v>
+        <v>-0.50407985684397816</v>
       </c>
       <c r="X8" s="0">
-        <v>-0.025330267886764991</v>
+        <v>-0.0030481812506865675</v>
       </c>
       <c r="Y8" s="0">
-        <v>0.49624082237552408</v>
+        <v>0.48910585723488603</v>
       </c>
       <c r="Z8" s="0">
-        <v>-0.49251059888199639</v>
+        <v>-0.49354147475729665</v>
       </c>
       <c r="AA8" s="0">
-        <v>-0.055129944356766103</v>
+        <v>-0.041239658576135173</v>
       </c>
       <c r="AB8" s="0">
-        <v>0.48792003970907966</v>
+        <v>0.48184163023912524</v>
       </c>
       <c r="AC8" s="0">
-        <v>-0.14191955005726195</v>
+        <v>-0.14155174722748454</v>
       </c>
       <c r="AD8" s="0">
-        <v>-0.039795370030794364</v>
+        <v>-0.020281242310574755</v>
       </c>
       <c r="AE8" s="0">
-        <v>0.14057644028268396</v>
+        <v>0.141132711188481</v>
       </c>
       <c r="AF8" s="0">
-        <v>-0.48737821306112006</v>
+        <v>-0.48743566295900692</v>
       </c>
       <c r="AG8" s="0">
-        <v>-0.00029656372604739073</v>
+        <v>0.003386692891526078</v>
       </c>
       <c r="AH8" s="0">
-        <v>0.4798137049092881</v>
+        <v>0.48857139138852168</v>
       </c>
       <c r="AI8" s="0">
-        <v>-0.48587304794348124</v>
+        <v>-0.48293113803859367</v>
       </c>
       <c r="AJ8" s="0">
-        <v>-0.021764615772980597</v>
+        <v>-0.045906767280822935</v>
       </c>
       <c r="AK8" s="0">
-        <v>0.47413738763557989</v>
+        <v>0.47063540873236298</v>
       </c>
       <c r="AL8" s="0">
-        <v>-0.29212645906106693</v>
+        <v>-0.26587870028724048</v>
       </c>
       <c r="AM8" s="0">
-        <v>0.007339391049942294</v>
+        <v>0.0053108454813491929</v>
       </c>
       <c r="AN8" s="0">
-        <v>0.30387659635797182</v>
+        <v>0.29261305251409897</v>
       </c>
       <c r="AO8" s="0">
-        <v>-0.71145630340786437</v>
+        <v>-0.69868701348723494</v>
       </c>
       <c r="AP8" s="0">
-        <v>-0.063335841403588333</v>
+        <v>-0.023378108037563843</v>
       </c>
       <c r="AQ8" s="0">
-        <v>0.70626676386309817</v>
+        <v>0.70142364277857827</v>
       </c>
       <c r="AR8" s="0">
-        <v>-0.72407758513942588</v>
+        <v>-0.69567087126387761</v>
       </c>
       <c r="AS8" s="0">
-        <v>-0.032261086606633807</v>
+        <v>0.0047812062844220437</v>
       </c>
       <c r="AT8" s="0">
-        <v>0.70615956416352788</v>
+        <v>0.7408566551051452</v>
       </c>
       <c r="AU8" s="0">
-        <v>-0.8235580212417426</v>
+        <v>-0.82244399439916771</v>
       </c>
       <c r="AV8" s="0">
-        <v>0.48037715776627565</v>
+        <v>0.45721612714435589</v>
       </c>
       <c r="AW8" s="0">
-        <v>0.81030710394696837</v>
+        <v>0.8187983289276225</v>
       </c>
       <c r="AX8" s="0">
-        <v>-0.50456459399541398</v>
+        <v>-0.50407985684397816</v>
       </c>
       <c r="AY8" s="0">
-        <v>-0.025330267886764991</v>
+        <v>-0.0030481812506865675</v>
       </c>
       <c r="AZ8" s="0">
-        <v>0.49624082237552408</v>
+        <v>0.48910585723488603</v>
       </c>
       <c r="BA8" s="0">
-        <v>-0.49251059888199639</v>
+        <v>-0.49354147475729665</v>
       </c>
       <c r="BB8" s="0">
-        <v>-0.055129944356766103</v>
+        <v>-0.041239658576135173</v>
       </c>
       <c r="BC8" s="0">
-        <v>0.48792003970907966</v>
+        <v>0.48184163023912524</v>
       </c>
       <c r="BD8" s="0">
-        <v>-0.14191955005726195</v>
+        <v>-0.14155174722748454</v>
       </c>
       <c r="BE8" s="0">
-        <v>-0.039795370030794364</v>
+        <v>-0.020281242310574755</v>
       </c>
       <c r="BF8" s="0">
-        <v>0.14057644028268396</v>
+        <v>0.141132711188481</v>
       </c>
       <c r="BG8" s="0">
-        <v>-0.48737821306112006</v>
+        <v>-0.48743566295900692</v>
       </c>
       <c r="BH8" s="0">
-        <v>-0.00029656372604739073</v>
+        <v>0.003386692891526078</v>
       </c>
       <c r="BI8" s="0">
-        <v>0.4798137049092881</v>
+        <v>0.48857139138852168</v>
       </c>
       <c r="BJ8" s="0">
-        <v>-0.48587304794348124</v>
+        <v>-0.48293113803859367</v>
       </c>
       <c r="BK8" s="0">
-        <v>-0.021764615772980597</v>
+        <v>-0.045906767280822935</v>
       </c>
       <c r="BL8" s="0">
-        <v>0.47413738763557989</v>
+        <v>0.47063540873236298</v>
       </c>
       <c r="BM8" s="0">
-        <v>-0.29212645906106693</v>
+        <v>-0.26587870028724048</v>
       </c>
       <c r="BN8" s="0">
-        <v>0.007339391049942294</v>
+        <v>0.0053108454813491929</v>
       </c>
       <c r="BO8" s="0">
-        <v>0.30387659635797182</v>
+        <v>0.29261305251409897</v>
       </c>
       <c r="BP8" s="0">
-        <v>-0.71145630340786437</v>
+        <v>-0.69868701348723494</v>
       </c>
       <c r="BQ8" s="0">
-        <v>-0.063335841403588333</v>
+        <v>-0.023378108037563843</v>
       </c>
       <c r="BR8" s="0">
-        <v>0.70626676386309817</v>
+        <v>0.70142364277857827</v>
       </c>
       <c r="BS8" s="0">
-        <v>-0.72407758513942588</v>
+        <v>-0.69567087126387761</v>
       </c>
       <c r="BT8" s="0">
-        <v>-0.032261086606633807</v>
+        <v>0.0047812062844220437</v>
       </c>
       <c r="BU8" s="0">
-        <v>0.70615956416352788</v>
+        <v>0.7408566551051452</v>
       </c>
       <c r="BV8" s="0">
-        <v>-0.8235580212417426</v>
+        <v>-0.82244399439916771</v>
       </c>
       <c r="BW8" s="0">
-        <v>0.48037715776627565</v>
+        <v>0.45721612714435589</v>
       </c>
       <c r="BX8" s="0">
-        <v>0.81030710394696837</v>
+        <v>0.8187983289276225</v>
       </c>
       <c r="BY8" s="0">
-        <v>-0.50456459399541398</v>
+        <v>-0.50407985684397816</v>
       </c>
       <c r="BZ8" s="0">
-        <v>-0.025330267886764991</v>
+        <v>-0.0030481812506865675</v>
       </c>
       <c r="CA8" s="0">
-        <v>0.49624082237552408</v>
+        <v>0.48910585723488603</v>
       </c>
       <c r="CB8" s="0">
-        <v>-0.49251059888199639</v>
+        <v>-0.49354147475729665</v>
       </c>
       <c r="CC8" s="0">
-        <v>-0.055129944356766103</v>
+        <v>-0.041239658576135173</v>
       </c>
       <c r="CD8" s="0">
-        <v>0.48792003970907966</v>
+        <v>0.48184163023912524</v>
       </c>
     </row>
   </sheetData>

--- a/SeparablePanel/output/responsePercentiles.xlsx
+++ b/SeparablePanel/output/responsePercentiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="820" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1066" uniqueCount="82">
   <si>
     <t>Time</t>
   </si>
@@ -315,7 +315,7 @@
     <col min="3" max="3" width="16.5703125" customWidth="true"/>
     <col min="4" max="4" width="16.5703125" customWidth="true"/>
     <col min="5" max="5" width="16" customWidth="true"/>
-    <col min="6" max="6" width="16.42578125" customWidth="true"/>
+    <col min="6" max="6" width="16" customWidth="true"/>
     <col min="7" max="7" width="16" customWidth="true"/>
     <col min="8" max="8" width="16" customWidth="true"/>
     <col min="9" max="9" width="16" customWidth="true"/>
@@ -342,7 +342,7 @@
     <col min="30" max="30" width="16.5703125" customWidth="true"/>
     <col min="31" max="31" width="16.5703125" customWidth="true"/>
     <col min="32" max="32" width="16" customWidth="true"/>
-    <col min="33" max="33" width="16.42578125" customWidth="true"/>
+    <col min="33" max="33" width="16" customWidth="true"/>
     <col min="34" max="34" width="16" customWidth="true"/>
     <col min="35" max="35" width="16" customWidth="true"/>
     <col min="36" max="36" width="16" customWidth="true"/>
@@ -369,7 +369,7 @@
     <col min="57" max="57" width="16.7109375" customWidth="true"/>
     <col min="58" max="58" width="16.7109375" customWidth="true"/>
     <col min="59" max="59" width="16.140625" customWidth="true"/>
-    <col min="60" max="60" width="16.42578125" customWidth="true"/>
+    <col min="60" max="60" width="16.140625" customWidth="true"/>
     <col min="61" max="61" width="16.140625" customWidth="true"/>
     <col min="62" max="62" width="16.140625" customWidth="true"/>
     <col min="63" max="63" width="16.140625" customWidth="true"/>
@@ -644,7 +644,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>41730</v>
+        <v>41821</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>41821</v>
+        <v>41913</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -1140,16 +1140,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.90405450509727092</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.90405450509727092</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>0.90405450509727092</v>
       </c>
       <c r="E4" s="0">
         <v>0</v>
@@ -1170,22 +1170,22 @@
         <v>0</v>
       </c>
       <c r="K4" s="0">
-        <v>0</v>
+        <v>0.026795499988247318</v>
       </c>
       <c r="L4" s="0">
-        <v>0</v>
+        <v>0.026795499988247318</v>
       </c>
       <c r="M4" s="0">
-        <v>0</v>
+        <v>0.026795499988247318</v>
       </c>
       <c r="N4" s="0">
-        <v>0</v>
+        <v>0.7057439265406622</v>
       </c>
       <c r="O4" s="0">
-        <v>0</v>
+        <v>0.7057439265406622</v>
       </c>
       <c r="P4" s="0">
-        <v>0</v>
+        <v>0.7057439265406622</v>
       </c>
       <c r="Q4" s="0">
         <v>0</v>
@@ -1197,40 +1197,40 @@
         <v>0</v>
       </c>
       <c r="T4" s="0">
-        <v>0</v>
+        <v>0.15776554503341517</v>
       </c>
       <c r="U4" s="0">
-        <v>0</v>
+        <v>0.15776554503341517</v>
       </c>
       <c r="V4" s="0">
-        <v>0</v>
+        <v>0.15776554503341517</v>
       </c>
       <c r="W4" s="0">
-        <v>0</v>
+        <v>0.11176751104224278</v>
       </c>
       <c r="X4" s="0">
-        <v>0</v>
+        <v>0.11176751104224278</v>
       </c>
       <c r="Y4" s="0">
-        <v>0</v>
+        <v>0.11176751104224278</v>
       </c>
       <c r="Z4" s="0">
-        <v>0</v>
+        <v>0.78665045216503426</v>
       </c>
       <c r="AA4" s="0">
-        <v>0</v>
+        <v>0.78665045216503426</v>
       </c>
       <c r="AB4" s="0">
-        <v>0</v>
+        <v>0.78665045216503426</v>
       </c>
       <c r="AC4" s="0">
-        <v>0</v>
+        <v>0.90405450509727092</v>
       </c>
       <c r="AD4" s="0">
-        <v>0</v>
+        <v>0.90405450509727092</v>
       </c>
       <c r="AE4" s="0">
-        <v>0</v>
+        <v>0.90405450509727092</v>
       </c>
       <c r="AF4" s="0">
         <v>0</v>
@@ -1251,22 +1251,22 @@
         <v>0</v>
       </c>
       <c r="AL4" s="0">
-        <v>0</v>
+        <v>0.026795499988247318</v>
       </c>
       <c r="AM4" s="0">
-        <v>0</v>
+        <v>0.026795499988247318</v>
       </c>
       <c r="AN4" s="0">
-        <v>0</v>
+        <v>0.026795499988247318</v>
       </c>
       <c r="AO4" s="0">
-        <v>0</v>
+        <v>0.7057439265406622</v>
       </c>
       <c r="AP4" s="0">
-        <v>0</v>
+        <v>0.7057439265406622</v>
       </c>
       <c r="AQ4" s="0">
-        <v>0</v>
+        <v>0.7057439265406622</v>
       </c>
       <c r="AR4" s="0">
         <v>0</v>
@@ -1278,40 +1278,40 @@
         <v>0</v>
       </c>
       <c r="AU4" s="0">
-        <v>0</v>
+        <v>0.15776554503341517</v>
       </c>
       <c r="AV4" s="0">
-        <v>0</v>
+        <v>0.15776554503341517</v>
       </c>
       <c r="AW4" s="0">
-        <v>0</v>
+        <v>0.15776554503341517</v>
       </c>
       <c r="AX4" s="0">
-        <v>0</v>
+        <v>0.11176751104224278</v>
       </c>
       <c r="AY4" s="0">
-        <v>0</v>
+        <v>0.11176751104224278</v>
       </c>
       <c r="AZ4" s="0">
-        <v>0</v>
+        <v>0.11176751104224278</v>
       </c>
       <c r="BA4" s="0">
-        <v>0</v>
+        <v>0.78665045216503426</v>
       </c>
       <c r="BB4" s="0">
-        <v>0</v>
+        <v>0.78665045216503426</v>
       </c>
       <c r="BC4" s="0">
-        <v>0</v>
+        <v>0.78665045216503426</v>
       </c>
       <c r="BD4" s="0">
-        <v>0</v>
+        <v>0.90405450509727092</v>
       </c>
       <c r="BE4" s="0">
-        <v>0</v>
+        <v>0.90405450509727092</v>
       </c>
       <c r="BF4" s="0">
-        <v>0</v>
+        <v>0.90405450509727092</v>
       </c>
       <c r="BG4" s="0">
         <v>0</v>
@@ -1332,22 +1332,22 @@
         <v>0</v>
       </c>
       <c r="BM4" s="0">
-        <v>0</v>
+        <v>0.026795499988247318</v>
       </c>
       <c r="BN4" s="0">
-        <v>0</v>
+        <v>0.026795499988247318</v>
       </c>
       <c r="BO4" s="0">
-        <v>0</v>
+        <v>0.026795499988247318</v>
       </c>
       <c r="BP4" s="0">
-        <v>0</v>
+        <v>0.7057439265406622</v>
       </c>
       <c r="BQ4" s="0">
-        <v>0</v>
+        <v>0.7057439265406622</v>
       </c>
       <c r="BR4" s="0">
-        <v>0</v>
+        <v>0.7057439265406622</v>
       </c>
       <c r="BS4" s="0">
         <v>0</v>
@@ -1359,775 +1359,775 @@
         <v>0</v>
       </c>
       <c r="BV4" s="0">
-        <v>0</v>
+        <v>0.15776554503341517</v>
       </c>
       <c r="BW4" s="0">
-        <v>0</v>
+        <v>0.15776554503341517</v>
       </c>
       <c r="BX4" s="0">
-        <v>0</v>
+        <v>0.15776554503341517</v>
       </c>
       <c r="BY4" s="0">
-        <v>0</v>
+        <v>0.11176751104224278</v>
       </c>
       <c r="BZ4" s="0">
-        <v>0</v>
+        <v>0.11176751104224278</v>
       </c>
       <c r="CA4" s="0">
-        <v>0</v>
+        <v>0.11176751104224278</v>
       </c>
       <c r="CB4" s="0">
-        <v>0</v>
+        <v>0.78665045216503426</v>
       </c>
       <c r="CC4" s="0">
-        <v>0</v>
+        <v>0.78665045216503426</v>
       </c>
       <c r="CD4" s="0">
-        <v>0</v>
+        <v>0.78665045216503426</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>42005</v>
+        <v>42095</v>
       </c>
       <c r="B5" s="0">
-        <v>0</v>
+        <v>0.84172671046068825</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.9576831674410663</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>1.0725469198151814</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.82684202706215526</v>
+        <v>-0.071098772448571157</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.0046674327435903039</v>
+        <v>-0.01008798391341157</v>
       </c>
       <c r="G5" s="0">
-        <v>0.82505482067983982</v>
+        <v>0.050139501445322185</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.83703327719317033</v>
+        <v>0.11828468238533116</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.090787324803322147</v>
+        <v>0.12106909053985808</v>
       </c>
       <c r="J5" s="0">
-        <v>0.80712202638972164</v>
+        <v>0.12401201347077123</v>
       </c>
       <c r="K5" s="0">
-        <v>0</v>
+        <v>0.046122598194836661</v>
       </c>
       <c r="L5" s="0">
-        <v>0</v>
+        <v>0.14993493722543094</v>
       </c>
       <c r="M5" s="0">
-        <v>0</v>
+        <v>0.25362939836030662</v>
       </c>
       <c r="N5" s="0">
-        <v>-0.66152187628459147</v>
+        <v>0.67300858396860386</v>
       </c>
       <c r="O5" s="0">
-        <v>-0.044088269362720256</v>
+        <v>0.854886389468415</v>
       </c>
       <c r="P5" s="0">
-        <v>0.66653149015925517</v>
+        <v>1.0439165357442257</v>
       </c>
       <c r="Q5" s="0">
-        <v>-0.66632941846164606</v>
+        <v>0.079069130400446608</v>
       </c>
       <c r="R5" s="0">
-        <v>0.022107538288649715</v>
+        <v>0.10891452051357114</v>
       </c>
       <c r="S5" s="0">
-        <v>0.66535696860026539</v>
+        <v>0.1406368746767932</v>
       </c>
       <c r="T5" s="0">
-        <v>-0.7765001909606426</v>
+        <v>0.24890323947587809</v>
       </c>
       <c r="U5" s="0">
-        <v>0.7765001909606426</v>
+        <v>0.30107305248069266</v>
       </c>
       <c r="V5" s="0">
-        <v>0.7765001909606426</v>
+        <v>0.351910054798242</v>
       </c>
       <c r="W5" s="0">
-        <v>-0.17996471930895708</v>
+        <v>0.10245737009653129</v>
       </c>
       <c r="X5" s="0">
-        <v>0.0027450454934001695</v>
+        <v>0.13423667644970388</v>
       </c>
       <c r="Y5" s="0">
-        <v>0.17587711434656553</v>
+        <v>0.16466847562919879</v>
       </c>
       <c r="Z5" s="0">
-        <v>-0.17864797083916506</v>
+        <v>0.86327299154486392</v>
       </c>
       <c r="AA5" s="0">
-        <v>-0.011045146642375922</v>
+        <v>0.90447960477293354</v>
       </c>
       <c r="AB5" s="0">
-        <v>0.18071236676454489</v>
+        <v>0.94262884542024383</v>
       </c>
       <c r="AC5" s="0">
-        <v>0</v>
+        <v>0.84172671046068825</v>
       </c>
       <c r="AD5" s="0">
-        <v>0</v>
+        <v>0.9576831674410663</v>
       </c>
       <c r="AE5" s="0">
-        <v>0</v>
+        <v>1.0725469198151814</v>
       </c>
       <c r="AF5" s="0">
-        <v>-0.82684202706215526</v>
+        <v>-0.071098772448571157</v>
       </c>
       <c r="AG5" s="0">
-        <v>-0.0046674327435903039</v>
+        <v>-0.01008798391341157</v>
       </c>
       <c r="AH5" s="0">
-        <v>0.82505482067983982</v>
+        <v>0.050139501445322185</v>
       </c>
       <c r="AI5" s="0">
-        <v>-0.83703327719317033</v>
+        <v>0.11828468238533116</v>
       </c>
       <c r="AJ5" s="0">
-        <v>-0.090787324803322147</v>
+        <v>0.12106909053985808</v>
       </c>
       <c r="AK5" s="0">
-        <v>0.80712202638972164</v>
+        <v>0.12401201347077123</v>
       </c>
       <c r="AL5" s="0">
-        <v>0</v>
+        <v>0.046122598194836661</v>
       </c>
       <c r="AM5" s="0">
-        <v>0</v>
+        <v>0.14993493722543094</v>
       </c>
       <c r="AN5" s="0">
-        <v>0</v>
+        <v>0.25362939836030662</v>
       </c>
       <c r="AO5" s="0">
-        <v>-0.66152187628459147</v>
+        <v>0.67300858396860386</v>
       </c>
       <c r="AP5" s="0">
-        <v>-0.044088269362720256</v>
+        <v>0.854886389468415</v>
       </c>
       <c r="AQ5" s="0">
-        <v>0.66653149015925517</v>
+        <v>1.0439165357442257</v>
       </c>
       <c r="AR5" s="0">
-        <v>-0.66632941846164606</v>
+        <v>0.079069130400446608</v>
       </c>
       <c r="AS5" s="0">
-        <v>0.022107538288649715</v>
+        <v>0.10891452051357114</v>
       </c>
       <c r="AT5" s="0">
-        <v>0.66535696860026539</v>
+        <v>0.1406368746767932</v>
       </c>
       <c r="AU5" s="0">
-        <v>-0.7765001909606426</v>
+        <v>0.24890323947587809</v>
       </c>
       <c r="AV5" s="0">
-        <v>0.7765001909606426</v>
+        <v>0.30107305248069266</v>
       </c>
       <c r="AW5" s="0">
-        <v>0.7765001909606426</v>
+        <v>0.351910054798242</v>
       </c>
       <c r="AX5" s="0">
-        <v>-0.17996471930895708</v>
+        <v>0.10245737009653129</v>
       </c>
       <c r="AY5" s="0">
-        <v>0.0027450454934001695</v>
+        <v>0.13423667644970388</v>
       </c>
       <c r="AZ5" s="0">
-        <v>0.17587711434656553</v>
+        <v>0.16466847562919879</v>
       </c>
       <c r="BA5" s="0">
-        <v>-0.17864797083916506</v>
+        <v>0.86327299154486392</v>
       </c>
       <c r="BB5" s="0">
-        <v>-0.011045146642375922</v>
+        <v>0.90447960477293354</v>
       </c>
       <c r="BC5" s="0">
-        <v>0.18071236676454489</v>
+        <v>0.94262884542024383</v>
       </c>
       <c r="BD5" s="0">
-        <v>0</v>
+        <v>0.84172671046068825</v>
       </c>
       <c r="BE5" s="0">
-        <v>0</v>
+        <v>0.9576831674410663</v>
       </c>
       <c r="BF5" s="0">
-        <v>0</v>
+        <v>1.0725469198151814</v>
       </c>
       <c r="BG5" s="0">
-        <v>-0.82684202706215526</v>
+        <v>-0.071098772448571157</v>
       </c>
       <c r="BH5" s="0">
-        <v>-0.0046674327435903039</v>
+        <v>-0.01008798391341157</v>
       </c>
       <c r="BI5" s="0">
-        <v>0.82505482067983982</v>
+        <v>0.050139501445322185</v>
       </c>
       <c r="BJ5" s="0">
-        <v>-0.83703327719317033</v>
+        <v>0.11828468238533116</v>
       </c>
       <c r="BK5" s="0">
-        <v>-0.090787324803322147</v>
+        <v>0.12106909053985808</v>
       </c>
       <c r="BL5" s="0">
-        <v>0.80712202638972164</v>
+        <v>0.12401201347077123</v>
       </c>
       <c r="BM5" s="0">
-        <v>0</v>
+        <v>0.046122598194836661</v>
       </c>
       <c r="BN5" s="0">
-        <v>0</v>
+        <v>0.14993493722543094</v>
       </c>
       <c r="BO5" s="0">
-        <v>0</v>
+        <v>0.25362939836030662</v>
       </c>
       <c r="BP5" s="0">
-        <v>-0.66152187628459147</v>
+        <v>0.67300858396860386</v>
       </c>
       <c r="BQ5" s="0">
-        <v>-0.044088269362720256</v>
+        <v>0.854886389468415</v>
       </c>
       <c r="BR5" s="0">
-        <v>0.66653149015925517</v>
+        <v>1.0439165357442257</v>
       </c>
       <c r="BS5" s="0">
-        <v>-0.66632941846164606</v>
+        <v>0.079069130400446608</v>
       </c>
       <c r="BT5" s="0">
-        <v>0.022107538288649715</v>
+        <v>0.10891452051357114</v>
       </c>
       <c r="BU5" s="0">
-        <v>0.66535696860026539</v>
+        <v>0.1406368746767932</v>
       </c>
       <c r="BV5" s="0">
-        <v>-0.7765001909606426</v>
+        <v>0.24890323947587809</v>
       </c>
       <c r="BW5" s="0">
-        <v>0.7765001909606426</v>
+        <v>0.30107305248069266</v>
       </c>
       <c r="BX5" s="0">
-        <v>0.7765001909606426</v>
+        <v>0.351910054798242</v>
       </c>
       <c r="BY5" s="0">
-        <v>-0.17996471930895708</v>
+        <v>0.10245737009653129</v>
       </c>
       <c r="BZ5" s="0">
-        <v>0.0027450454934001695</v>
+        <v>0.13423667644970388</v>
       </c>
       <c r="CA5" s="0">
-        <v>0.17587711434656553</v>
+        <v>0.16466847562919879</v>
       </c>
       <c r="CB5" s="0">
-        <v>-0.17864797083916506</v>
+        <v>0.86327299154486392</v>
       </c>
       <c r="CC5" s="0">
-        <v>-0.011045146642375922</v>
+        <v>0.90447960477293354</v>
       </c>
       <c r="CD5" s="0">
-        <v>0.18071236676454489</v>
+        <v>0.94262884542024383</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>42095</v>
+        <v>42186</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.12949286417677769</v>
+        <v>0.60242756879304382</v>
       </c>
       <c r="C6" s="0">
-        <v>0.11721943924932429</v>
+        <v>0.71097291302037402</v>
       </c>
       <c r="D6" s="0">
-        <v>0.1295289110390781</v>
+        <v>0.83115765193375934</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.81788392284777389</v>
+        <v>-0.13932140004496651</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.0138279256291436</v>
+        <v>0.0071947377826330466</v>
       </c>
       <c r="G6" s="0">
-        <v>0.81317104431853782</v>
+        <v>0.13334102825370278</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.81512389309538236</v>
+        <v>0.057749777045409456</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.10458437557076253</v>
+        <v>0.10318824773990165</v>
       </c>
       <c r="J6" s="0">
-        <v>0.78703640935945995</v>
+        <v>0.14481883527319567</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.10586769986540419</v>
+        <v>0.035976795719394425</v>
       </c>
       <c r="L6" s="0">
-        <v>0.072921818865205407</v>
+        <v>0.19431161892266705</v>
       </c>
       <c r="M6" s="0">
-        <v>0.10676919360461326</v>
+        <v>0.36967256115033587</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.83373273236022705</v>
+        <v>0.5887793352124473</v>
       </c>
       <c r="O6" s="0">
-        <v>-0.023285091218241637</v>
+        <v>0.81046706829875903</v>
       </c>
       <c r="P6" s="0">
-        <v>0.8459981924419121</v>
+        <v>1.1262006643715232</v>
       </c>
       <c r="Q6" s="0">
-        <v>-0.83745079233702391</v>
+        <v>0.087819324425063322</v>
       </c>
       <c r="R6" s="0">
-        <v>0.020086294687564597</v>
+        <v>0.17612639580133582</v>
       </c>
       <c r="S6" s="0">
-        <v>0.86168773523543563</v>
+        <v>0.27751551900450466</v>
       </c>
       <c r="T6" s="0">
-        <v>-0.93568703664016217</v>
+        <v>0.33281232654483278</v>
       </c>
       <c r="U6" s="0">
-        <v>0.78651387717711652</v>
+        <v>0.38036292649123526</v>
       </c>
       <c r="V6" s="0">
-        <v>0.93458933741056627</v>
+        <v>0.43411533405449632</v>
       </c>
       <c r="W6" s="0">
-        <v>-0.33997153043563078</v>
+        <v>0.12169027386106987</v>
       </c>
       <c r="X6" s="0">
-        <v>0.0032591087796196919</v>
+        <v>0.21797888130129045</v>
       </c>
       <c r="Y6" s="0">
-        <v>0.33557613306723216</v>
+        <v>0.30535480115464203</v>
       </c>
       <c r="Z6" s="0">
-        <v>-0.34477030542325238</v>
+        <v>0.81003298112408517</v>
       </c>
       <c r="AA6" s="0">
-        <v>-0.024053330940650972</v>
+        <v>0.89517375146516898</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.32839406093872142</v>
+        <v>0.97676915086127836</v>
       </c>
       <c r="AC6" s="0">
-        <v>-0.12949286417677769</v>
+        <v>0.60242756879304382</v>
       </c>
       <c r="AD6" s="0">
-        <v>0.11721943924932429</v>
+        <v>0.71097291302037402</v>
       </c>
       <c r="AE6" s="0">
-        <v>0.1295289110390781</v>
+        <v>0.83115765193375934</v>
       </c>
       <c r="AF6" s="0">
-        <v>-0.81788392284777389</v>
+        <v>-0.13932140004496651</v>
       </c>
       <c r="AG6" s="0">
-        <v>-0.0138279256291436</v>
+        <v>0.0071947377826330466</v>
       </c>
       <c r="AH6" s="0">
-        <v>0.81317104431853782</v>
+        <v>0.13334102825370278</v>
       </c>
       <c r="AI6" s="0">
-        <v>-0.81512389309538236</v>
+        <v>0.057749777045409456</v>
       </c>
       <c r="AJ6" s="0">
-        <v>-0.10458437557076253</v>
+        <v>0.10318824773990165</v>
       </c>
       <c r="AK6" s="0">
-        <v>0.78703640935945995</v>
+        <v>0.14481883527319567</v>
       </c>
       <c r="AL6" s="0">
-        <v>-0.10586769986540419</v>
+        <v>0.035976795719394425</v>
       </c>
       <c r="AM6" s="0">
-        <v>0.072921818865205407</v>
+        <v>0.19431161892266705</v>
       </c>
       <c r="AN6" s="0">
-        <v>0.10676919360461326</v>
+        <v>0.36967256115033587</v>
       </c>
       <c r="AO6" s="0">
-        <v>-0.83373273236022705</v>
+        <v>0.5887793352124473</v>
       </c>
       <c r="AP6" s="0">
-        <v>-0.023285091218241637</v>
+        <v>0.81046706829875903</v>
       </c>
       <c r="AQ6" s="0">
-        <v>0.8459981924419121</v>
+        <v>1.1262006643715232</v>
       </c>
       <c r="AR6" s="0">
-        <v>-0.83745079233702391</v>
+        <v>0.087819324425063322</v>
       </c>
       <c r="AS6" s="0">
-        <v>0.020086294687564597</v>
+        <v>0.17612639580133582</v>
       </c>
       <c r="AT6" s="0">
-        <v>0.86168773523543563</v>
+        <v>0.27751551900450466</v>
       </c>
       <c r="AU6" s="0">
-        <v>-0.93568703664016217</v>
+        <v>0.33281232654483278</v>
       </c>
       <c r="AV6" s="0">
-        <v>0.78651387717711652</v>
+        <v>0.38036292649123526</v>
       </c>
       <c r="AW6" s="0">
-        <v>0.93458933741056627</v>
+        <v>0.43411533405449632</v>
       </c>
       <c r="AX6" s="0">
-        <v>-0.33997153043563078</v>
+        <v>0.12169027386106987</v>
       </c>
       <c r="AY6" s="0">
-        <v>0.0032591087796196919</v>
+        <v>0.21797888130129045</v>
       </c>
       <c r="AZ6" s="0">
-        <v>0.33557613306723216</v>
+        <v>0.30535480115464203</v>
       </c>
       <c r="BA6" s="0">
-        <v>-0.34477030542325238</v>
+        <v>0.81003298112408517</v>
       </c>
       <c r="BB6" s="0">
-        <v>-0.024053330940650972</v>
+        <v>0.89517375146516898</v>
       </c>
       <c r="BC6" s="0">
-        <v>0.32839406093872142</v>
+        <v>0.97676915086127836</v>
       </c>
       <c r="BD6" s="0">
-        <v>-0.12949286417677769</v>
+        <v>0.60242756879304382</v>
       </c>
       <c r="BE6" s="0">
-        <v>0.11721943924932429</v>
+        <v>0.71097291302037402</v>
       </c>
       <c r="BF6" s="0">
-        <v>0.1295289110390781</v>
+        <v>0.83115765193375934</v>
       </c>
       <c r="BG6" s="0">
-        <v>-0.81788392284777389</v>
+        <v>-0.13932140004496651</v>
       </c>
       <c r="BH6" s="0">
-        <v>-0.0138279256291436</v>
+        <v>0.0071947377826330466</v>
       </c>
       <c r="BI6" s="0">
-        <v>0.81317104431853782</v>
+        <v>0.13334102825370278</v>
       </c>
       <c r="BJ6" s="0">
-        <v>-0.81512389309538236</v>
+        <v>0.057749777045409456</v>
       </c>
       <c r="BK6" s="0">
-        <v>-0.10458437557076253</v>
+        <v>0.10318824773990165</v>
       </c>
       <c r="BL6" s="0">
-        <v>0.78703640935945995</v>
+        <v>0.14481883527319567</v>
       </c>
       <c r="BM6" s="0">
-        <v>-0.10586769986540419</v>
+        <v>0.035976795719394425</v>
       </c>
       <c r="BN6" s="0">
-        <v>0.072921818865205407</v>
+        <v>0.19431161892266705</v>
       </c>
       <c r="BO6" s="0">
-        <v>0.10676919360461326</v>
+        <v>0.36967256115033587</v>
       </c>
       <c r="BP6" s="0">
-        <v>-0.83373273236022705</v>
+        <v>0.5887793352124473</v>
       </c>
       <c r="BQ6" s="0">
-        <v>-0.023285091218241637</v>
+        <v>0.81046706829875903</v>
       </c>
       <c r="BR6" s="0">
-        <v>0.8459981924419121</v>
+        <v>1.1262006643715232</v>
       </c>
       <c r="BS6" s="0">
-        <v>-0.83745079233702391</v>
+        <v>0.087819324425063322</v>
       </c>
       <c r="BT6" s="0">
-        <v>0.020086294687564597</v>
+        <v>0.17612639580133582</v>
       </c>
       <c r="BU6" s="0">
-        <v>0.86168773523543563</v>
+        <v>0.27751551900450466</v>
       </c>
       <c r="BV6" s="0">
-        <v>-0.93568703664016217</v>
+        <v>0.33281232654483278</v>
       </c>
       <c r="BW6" s="0">
-        <v>0.78651387717711652</v>
+        <v>0.38036292649123526</v>
       </c>
       <c r="BX6" s="0">
-        <v>0.93458933741056627</v>
+        <v>0.43411533405449632</v>
       </c>
       <c r="BY6" s="0">
-        <v>-0.33997153043563078</v>
+        <v>0.12169027386106987</v>
       </c>
       <c r="BZ6" s="0">
-        <v>0.0032591087796196919</v>
+        <v>0.21797888130129045</v>
       </c>
       <c r="CA6" s="0">
-        <v>0.33557613306723216</v>
+        <v>0.30535480115464203</v>
       </c>
       <c r="CB6" s="0">
-        <v>-0.34477030542325238</v>
+        <v>0.81003298112408517</v>
       </c>
       <c r="CC6" s="0">
-        <v>-0.024053330940650972</v>
+        <v>0.89517375146516898</v>
       </c>
       <c r="CD6" s="0">
-        <v>0.32839406093872142</v>
+        <v>0.97676915086127836</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>42186</v>
+        <v>42278</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.051213518831531003</v>
+        <v>0.37307179485499331</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.001079075370970765</v>
+        <v>0.42522236881400943</v>
       </c>
       <c r="D7" s="0">
-        <v>0.051853294573216344</v>
+        <v>0.48551015719076374</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.76123289100841762</v>
+        <v>-0.18227238678982349</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00080685986586160588</v>
+        <v>0.047165142644019532</v>
       </c>
       <c r="G7" s="0">
-        <v>0.76053552580454309</v>
+        <v>0.22106109894796955</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.76571243622614971</v>
+        <v>-0.054238619948967573</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.063086726002439864</v>
+        <v>0.026065004857314941</v>
       </c>
       <c r="J7" s="0">
-        <v>0.73840008121473688</v>
+        <v>0.094902546412330507</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.24809222410744514</v>
+        <v>-0.0070719094073415385</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.0019463305934058726</v>
+        <v>0.160598757827704</v>
       </c>
       <c r="M7" s="0">
-        <v>0.26067276853864479</v>
+        <v>0.38671231342357693</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.79443366736295018</v>
+        <v>0.52242985701957467</v>
       </c>
       <c r="O7" s="0">
-        <v>-0.029504707720313456</v>
+        <v>0.72934167853284859</v>
       </c>
       <c r="P7" s="0">
-        <v>0.79632459110384102</v>
+        <v>1.0705094779242796</v>
       </c>
       <c r="Q7" s="0">
-        <v>-0.78585310400523811</v>
+        <v>0.063119090796006611</v>
       </c>
       <c r="R7" s="0">
-        <v>0.011222470868746231</v>
+        <v>0.18819393857360864</v>
       </c>
       <c r="S7" s="0">
-        <v>0.83004150982524805</v>
+        <v>0.35915278842302634</v>
       </c>
       <c r="T7" s="0">
-        <v>-0.88751243364408783</v>
+        <v>0.38988858018214079</v>
       </c>
       <c r="U7" s="0">
-        <v>0.60256939706080503</v>
+        <v>0.41633124240886782</v>
       </c>
       <c r="V7" s="0">
-        <v>0.88005866175909275</v>
+        <v>0.43798280797455602</v>
       </c>
       <c r="W7" s="0">
-        <v>-0.41632964267729222</v>
+        <v>0.1691763039114231</v>
       </c>
       <c r="X7" s="0">
-        <v>-0.0014031448611294601</v>
+        <v>0.32773928003998498</v>
       </c>
       <c r="Y7" s="0">
-        <v>0.40108078614564124</v>
+        <v>0.46063507921560987</v>
       </c>
       <c r="Z7" s="0">
-        <v>-0.40696922650631662</v>
+        <v>0.7440036965982455</v>
       </c>
       <c r="AA7" s="0">
-        <v>-0.029141007292285859</v>
+        <v>0.86319806061014681</v>
       </c>
       <c r="AB7" s="0">
-        <v>0.39123973721030825</v>
+        <v>0.97912263403323219</v>
       </c>
       <c r="AC7" s="0">
-        <v>-0.051213518831531003</v>
+        <v>0.37307179485499331</v>
       </c>
       <c r="AD7" s="0">
-        <v>-0.001079075370970765</v>
+        <v>0.42522236881400943</v>
       </c>
       <c r="AE7" s="0">
-        <v>0.051853294573216344</v>
+        <v>0.48551015719076374</v>
       </c>
       <c r="AF7" s="0">
-        <v>-0.76123289100841762</v>
+        <v>-0.18227238678982349</v>
       </c>
       <c r="AG7" s="0">
-        <v>-0.00080685986586160588</v>
+        <v>0.047165142644019532</v>
       </c>
       <c r="AH7" s="0">
-        <v>0.76053552580454309</v>
+        <v>0.22106109894796955</v>
       </c>
       <c r="AI7" s="0">
-        <v>-0.76571243622614971</v>
+        <v>-0.054238619948967573</v>
       </c>
       <c r="AJ7" s="0">
-        <v>-0.063086726002439864</v>
+        <v>0.026065004857314941</v>
       </c>
       <c r="AK7" s="0">
-        <v>0.73840008121473688</v>
+        <v>0.094902546412330507</v>
       </c>
       <c r="AL7" s="0">
-        <v>-0.24809222410744514</v>
+        <v>-0.0070719094073415385</v>
       </c>
       <c r="AM7" s="0">
-        <v>-0.0019463305934058726</v>
+        <v>0.160598757827704</v>
       </c>
       <c r="AN7" s="0">
-        <v>0.26067276853864479</v>
+        <v>0.38671231342357693</v>
       </c>
       <c r="AO7" s="0">
-        <v>-0.79443366736295018</v>
+        <v>0.52242985701957467</v>
       </c>
       <c r="AP7" s="0">
-        <v>-0.029504707720313456</v>
+        <v>0.72934167853284859</v>
       </c>
       <c r="AQ7" s="0">
-        <v>0.79632459110384102</v>
+        <v>1.0705094779242796</v>
       </c>
       <c r="AR7" s="0">
-        <v>-0.78585310400523811</v>
+        <v>0.063119090796006611</v>
       </c>
       <c r="AS7" s="0">
-        <v>0.011222470868746231</v>
+        <v>0.18819393857360864</v>
       </c>
       <c r="AT7" s="0">
-        <v>0.83004150982524805</v>
+        <v>0.35915278842302634</v>
       </c>
       <c r="AU7" s="0">
-        <v>-0.88751243364408783</v>
+        <v>0.38988858018214079</v>
       </c>
       <c r="AV7" s="0">
-        <v>0.60256939706080503</v>
+        <v>0.41633124240886782</v>
       </c>
       <c r="AW7" s="0">
-        <v>0.88005866175909275</v>
+        <v>0.43798280797455602</v>
       </c>
       <c r="AX7" s="0">
-        <v>-0.41632964267729222</v>
+        <v>0.1691763039114231</v>
       </c>
       <c r="AY7" s="0">
-        <v>-0.0014031448611294601</v>
+        <v>0.32773928003998498</v>
       </c>
       <c r="AZ7" s="0">
-        <v>0.40108078614564124</v>
+        <v>0.46063507921560987</v>
       </c>
       <c r="BA7" s="0">
-        <v>-0.40696922650631662</v>
+        <v>0.7440036965982455</v>
       </c>
       <c r="BB7" s="0">
-        <v>-0.029141007292285859</v>
+        <v>0.86319806061014681</v>
       </c>
       <c r="BC7" s="0">
-        <v>0.39123973721030825</v>
+        <v>0.97912263403323219</v>
       </c>
       <c r="BD7" s="0">
-        <v>-0.051213518831531003</v>
+        <v>0.37307179485499331</v>
       </c>
       <c r="BE7" s="0">
-        <v>-0.001079075370970765</v>
+        <v>0.42522236881400943</v>
       </c>
       <c r="BF7" s="0">
-        <v>0.051853294573216344</v>
+        <v>0.48551015719076374</v>
       </c>
       <c r="BG7" s="0">
-        <v>-0.76123289100841762</v>
+        <v>-0.18227238678982349</v>
       </c>
       <c r="BH7" s="0">
-        <v>-0.00080685986586160588</v>
+        <v>0.047165142644019532</v>
       </c>
       <c r="BI7" s="0">
-        <v>0.76053552580454309</v>
+        <v>0.22106109894796955</v>
       </c>
       <c r="BJ7" s="0">
-        <v>-0.76571243622614971</v>
+        <v>-0.054238619948967573</v>
       </c>
       <c r="BK7" s="0">
-        <v>-0.063086726002439864</v>
+        <v>0.026065004857314941</v>
       </c>
       <c r="BL7" s="0">
-        <v>0.73840008121473688</v>
+        <v>0.094902546412330507</v>
       </c>
       <c r="BM7" s="0">
-        <v>-0.24809222410744514</v>
+        <v>-0.0070719094073415385</v>
       </c>
       <c r="BN7" s="0">
-        <v>-0.0019463305934058726</v>
+        <v>0.160598757827704</v>
       </c>
       <c r="BO7" s="0">
-        <v>0.26067276853864479</v>
+        <v>0.38671231342357693</v>
       </c>
       <c r="BP7" s="0">
-        <v>-0.79443366736295018</v>
+        <v>0.52242985701957467</v>
       </c>
       <c r="BQ7" s="0">
-        <v>-0.029504707720313456</v>
+        <v>0.72934167853284859</v>
       </c>
       <c r="BR7" s="0">
-        <v>0.79632459110384102</v>
+        <v>1.0705094779242796</v>
       </c>
       <c r="BS7" s="0">
-        <v>-0.78585310400523811</v>
+        <v>0.063119090796006611</v>
       </c>
       <c r="BT7" s="0">
-        <v>0.011222470868746231</v>
+        <v>0.18819393857360864</v>
       </c>
       <c r="BU7" s="0">
-        <v>0.83004150982524805</v>
+        <v>0.35915278842302634</v>
       </c>
       <c r="BV7" s="0">
-        <v>-0.88751243364408783</v>
+        <v>0.38988858018214079</v>
       </c>
       <c r="BW7" s="0">
-        <v>0.60256939706080503</v>
+        <v>0.41633124240886782</v>
       </c>
       <c r="BX7" s="0">
-        <v>0.88005866175909275</v>
+        <v>0.43798280797455602</v>
       </c>
       <c r="BY7" s="0">
-        <v>-0.41632964267729222</v>
+        <v>0.1691763039114231</v>
       </c>
       <c r="BZ7" s="0">
-        <v>-0.0014031448611294601</v>
+        <v>0.32773928003998498</v>
       </c>
       <c r="CA7" s="0">
-        <v>0.40108078614564124</v>
+        <v>0.46063507921560987</v>
       </c>
       <c r="CB7" s="0">
-        <v>-0.40696922650631662</v>
+        <v>0.7440036965982455</v>
       </c>
       <c r="CC7" s="0">
-        <v>-0.029141007292285859</v>
+        <v>0.86319806061014681</v>
       </c>
       <c r="CD7" s="0">
-        <v>0.39123973721030825</v>
+        <v>0.97912263403323219</v>
       </c>
     </row>
     <row r="8">
@@ -2135,247 +2135,247 @@
         <v>42278</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.14155174722748454</v>
+        <v>-0.14422488114542945</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.020281242310574755</v>
+        <v>0.035643032034662167</v>
       </c>
       <c r="D8" s="0">
-        <v>0.141132711188481</v>
+        <v>0.14140732508217452</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.48743566295900692</v>
+        <v>-0.4812944650822325</v>
       </c>
       <c r="F8" s="0">
-        <v>0.003386692891526078</v>
+        <v>0.010812251933073971</v>
       </c>
       <c r="G8" s="0">
-        <v>0.48857139138852168</v>
+        <v>0.48761473624334306</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.48293113803859367</v>
+        <v>-0.48798351733536482</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.045906767280822935</v>
+        <v>0.013053901044391596</v>
       </c>
       <c r="J8" s="0">
-        <v>0.47063540873236298</v>
+        <v>0.4788891860437321</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.26587870028724048</v>
+        <v>-0.29632854326583613</v>
       </c>
       <c r="L8" s="0">
-        <v>0.0053108454813491929</v>
+        <v>0.0012549367039571815</v>
       </c>
       <c r="M8" s="0">
-        <v>0.29261305251409897</v>
+        <v>0.29178103008093781</v>
       </c>
       <c r="N8" s="0">
-        <v>-0.69868701348723494</v>
+        <v>-0.71617431634481776</v>
       </c>
       <c r="O8" s="0">
-        <v>-0.023378108037563843</v>
+        <v>0.00027069837866109682</v>
       </c>
       <c r="P8" s="0">
-        <v>0.70142364277857827</v>
+        <v>0.70033861774219996</v>
       </c>
       <c r="Q8" s="0">
-        <v>-0.69567087126387761</v>
+        <v>-0.71014290308406425</v>
       </c>
       <c r="R8" s="0">
-        <v>0.0047812062844220437</v>
+        <v>-0.041406816028341356</v>
       </c>
       <c r="S8" s="0">
-        <v>0.7408566551051452</v>
+        <v>0.70531576650755112</v>
       </c>
       <c r="T8" s="0">
-        <v>-0.82244399439916771</v>
+        <v>-0.81514651729490362</v>
       </c>
       <c r="U8" s="0">
-        <v>0.45721612714435589</v>
+        <v>-0.46370176327243129</v>
       </c>
       <c r="V8" s="0">
-        <v>0.8187983289276225</v>
+        <v>0.8176292963582048</v>
       </c>
       <c r="W8" s="0">
-        <v>-0.50407985684397816</v>
+        <v>-0.49237441269433957</v>
       </c>
       <c r="X8" s="0">
-        <v>-0.0030481812506865675</v>
+        <v>0.015749711617759361</v>
       </c>
       <c r="Y8" s="0">
-        <v>0.48910585723488603</v>
+        <v>0.48144791728854569</v>
       </c>
       <c r="Z8" s="0">
-        <v>-0.49354147475729665</v>
+        <v>-0.50063125493957072</v>
       </c>
       <c r="AA8" s="0">
-        <v>-0.041239658576135173</v>
+        <v>-0.022586656327637258</v>
       </c>
       <c r="AB8" s="0">
-        <v>0.48184163023912524</v>
+        <v>0.49671978358053492</v>
       </c>
       <c r="AC8" s="0">
-        <v>-0.14155174722748454</v>
+        <v>-0.14422488114542945</v>
       </c>
       <c r="AD8" s="0">
-        <v>-0.020281242310574755</v>
+        <v>0.035643032034662167</v>
       </c>
       <c r="AE8" s="0">
-        <v>0.141132711188481</v>
+        <v>0.14140732508217452</v>
       </c>
       <c r="AF8" s="0">
-        <v>-0.48743566295900692</v>
+        <v>-0.4812944650822325</v>
       </c>
       <c r="AG8" s="0">
-        <v>0.003386692891526078</v>
+        <v>0.010812251933073971</v>
       </c>
       <c r="AH8" s="0">
-        <v>0.48857139138852168</v>
+        <v>0.48761473624334306</v>
       </c>
       <c r="AI8" s="0">
-        <v>-0.48293113803859367</v>
+        <v>-0.48798351733536482</v>
       </c>
       <c r="AJ8" s="0">
-        <v>-0.045906767280822935</v>
+        <v>0.013053901044391596</v>
       </c>
       <c r="AK8" s="0">
-        <v>0.47063540873236298</v>
+        <v>0.4788891860437321</v>
       </c>
       <c r="AL8" s="0">
-        <v>-0.26587870028724048</v>
+        <v>-0.29632854326583613</v>
       </c>
       <c r="AM8" s="0">
-        <v>0.0053108454813491929</v>
+        <v>0.0012549367039571815</v>
       </c>
       <c r="AN8" s="0">
-        <v>0.29261305251409897</v>
+        <v>0.29178103008093781</v>
       </c>
       <c r="AO8" s="0">
-        <v>-0.69868701348723494</v>
+        <v>-0.71617431634481776</v>
       </c>
       <c r="AP8" s="0">
-        <v>-0.023378108037563843</v>
+        <v>0.00027069837866109682</v>
       </c>
       <c r="AQ8" s="0">
-        <v>0.70142364277857827</v>
+        <v>0.70033861774219996</v>
       </c>
       <c r="AR8" s="0">
-        <v>-0.69567087126387761</v>
+        <v>-0.71014290308406425</v>
       </c>
       <c r="AS8" s="0">
-        <v>0.0047812062844220437</v>
+        <v>-0.041406816028341356</v>
       </c>
       <c r="AT8" s="0">
-        <v>0.7408566551051452</v>
+        <v>0.70531576650755112</v>
       </c>
       <c r="AU8" s="0">
-        <v>-0.82244399439916771</v>
+        <v>-0.81514651729490362</v>
       </c>
       <c r="AV8" s="0">
-        <v>0.45721612714435589</v>
+        <v>-0.46370176327243129</v>
       </c>
       <c r="AW8" s="0">
-        <v>0.8187983289276225</v>
+        <v>0.8176292963582048</v>
       </c>
       <c r="AX8" s="0">
-        <v>-0.50407985684397816</v>
+        <v>-0.49237441269433957</v>
       </c>
       <c r="AY8" s="0">
-        <v>-0.0030481812506865675</v>
+        <v>0.015749711617759361</v>
       </c>
       <c r="AZ8" s="0">
-        <v>0.48910585723488603</v>
+        <v>0.48144791728854569</v>
       </c>
       <c r="BA8" s="0">
-        <v>-0.49354147475729665</v>
+        <v>-0.50063125493957072</v>
       </c>
       <c r="BB8" s="0">
-        <v>-0.041239658576135173</v>
+        <v>-0.022586656327637258</v>
       </c>
       <c r="BC8" s="0">
-        <v>0.48184163023912524</v>
+        <v>0.49671978358053492</v>
       </c>
       <c r="BD8" s="0">
-        <v>-0.14155174722748454</v>
+        <v>-0.14422488114542945</v>
       </c>
       <c r="BE8" s="0">
-        <v>-0.020281242310574755</v>
+        <v>0.035643032034662167</v>
       </c>
       <c r="BF8" s="0">
-        <v>0.141132711188481</v>
+        <v>0.14140732508217452</v>
       </c>
       <c r="BG8" s="0">
-        <v>-0.48743566295900692</v>
+        <v>-0.4812944650822325</v>
       </c>
       <c r="BH8" s="0">
-        <v>0.003386692891526078</v>
+        <v>0.010812251933073971</v>
       </c>
       <c r="BI8" s="0">
-        <v>0.48857139138852168</v>
+        <v>0.48761473624334306</v>
       </c>
       <c r="BJ8" s="0">
-        <v>-0.48293113803859367</v>
+        <v>-0.48798351733536482</v>
       </c>
       <c r="BK8" s="0">
-        <v>-0.045906767280822935</v>
+        <v>0.013053901044391596</v>
       </c>
       <c r="BL8" s="0">
-        <v>0.47063540873236298</v>
+        <v>0.4788891860437321</v>
       </c>
       <c r="BM8" s="0">
-        <v>-0.26587870028724048</v>
+        <v>-0.29632854326583613</v>
       </c>
       <c r="BN8" s="0">
-        <v>0.0053108454813491929</v>
+        <v>0.0012549367039571815</v>
       </c>
       <c r="BO8" s="0">
-        <v>0.29261305251409897</v>
+        <v>0.29178103008093781</v>
       </c>
       <c r="BP8" s="0">
-        <v>-0.69868701348723494</v>
+        <v>-0.71617431634481776</v>
       </c>
       <c r="BQ8" s="0">
-        <v>-0.023378108037563843</v>
+        <v>0.00027069837866109682</v>
       </c>
       <c r="BR8" s="0">
-        <v>0.70142364277857827</v>
+        <v>0.70033861774219996</v>
       </c>
       <c r="BS8" s="0">
-        <v>-0.69567087126387761</v>
+        <v>-0.71014290308406425</v>
       </c>
       <c r="BT8" s="0">
-        <v>0.0047812062844220437</v>
+        <v>-0.041406816028341356</v>
       </c>
       <c r="BU8" s="0">
-        <v>0.7408566551051452</v>
+        <v>0.70531576650755112</v>
       </c>
       <c r="BV8" s="0">
-        <v>-0.82244399439916771</v>
+        <v>-0.81514651729490362</v>
       </c>
       <c r="BW8" s="0">
-        <v>0.45721612714435589</v>
+        <v>-0.46370176327243129</v>
       </c>
       <c r="BX8" s="0">
-        <v>0.8187983289276225</v>
+        <v>0.8176292963582048</v>
       </c>
       <c r="BY8" s="0">
-        <v>-0.50407985684397816</v>
+        <v>-0.49237441269433957</v>
       </c>
       <c r="BZ8" s="0">
-        <v>-0.0030481812506865675</v>
+        <v>0.015749711617759361</v>
       </c>
       <c r="CA8" s="0">
-        <v>0.48910585723488603</v>
+        <v>0.48144791728854569</v>
       </c>
       <c r="CB8" s="0">
-        <v>-0.49354147475729665</v>
+        <v>-0.50063125493957072</v>
       </c>
       <c r="CC8" s="0">
-        <v>-0.041239658576135173</v>
+        <v>-0.022586656327637258</v>
       </c>
       <c r="CD8" s="0">
-        <v>0.48184163023912524</v>
+        <v>0.49671978358053492</v>
       </c>
     </row>
   </sheetData>
